--- a/DA标注标准 （带sample）7.16.xlsx
+++ b/DA标注标准 （带sample）7.16.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13650" activeTab="1"/>
+    <workbookView windowWidth="28695" windowHeight="13275" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ch2R OOD" sheetId="1" r:id="rId1"/>
     <sheet name="SWBD-DAMSL" sheetId="2" r:id="rId2"/>
     <sheet name="SWBD-ISO" sheetId="3" r:id="rId3"/>
     <sheet name="Verbmobil" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK2" localSheetId="0">'Ch2R OOD'!$B$17</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518">
   <si>
     <r>
       <rPr>
@@ -2794,6 +2795,340 @@
   </si>
   <si>
     <t>2未分类</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>中文</t>
+  </si>
+  <si>
+    <t>STATEMENT</t>
+  </si>
+  <si>
+    <t>客观陈述</t>
+  </si>
+  <si>
+    <t>陈述句</t>
+  </si>
+  <si>
+    <t>BACKCHANNEL/ACKNOWLEDGE</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>承认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>反馈式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>OPINION</t>
+  </si>
+  <si>
+    <t>主观陈述</t>
+  </si>
+  <si>
+    <t>ABANDONED/UNINTERPRETABLE</t>
+  </si>
+  <si>
+    <t>放弃</t>
+  </si>
+  <si>
+    <t>AGREEMENT/ACCEPT</t>
+  </si>
+  <si>
+    <t>接受</t>
+  </si>
+  <si>
+    <t>APPRECIATION</t>
+  </si>
+  <si>
+    <t>欣赏</t>
+  </si>
+  <si>
+    <t>YEs-No-QUESTION</t>
+  </si>
+  <si>
+    <t>是非问</t>
+  </si>
+  <si>
+    <t>NON-VERBAL</t>
+  </si>
+  <si>
+    <t>非言语行为</t>
+  </si>
+  <si>
+    <t>YES ANSWERS</t>
+  </si>
+  <si>
+    <t>含Yes肯定回答</t>
+  </si>
+  <si>
+    <t>CONVENTIONAL-CLOSING</t>
+  </si>
+  <si>
+    <t>惯用结束语</t>
+  </si>
+  <si>
+    <t>WH-QUESTION</t>
+  </si>
+  <si>
+    <t>特指问</t>
+  </si>
+  <si>
+    <t>NO ANSWERS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>否定回答</t>
+    </r>
+  </si>
+  <si>
+    <t>RESPONSE ACKNOWLEDGMENT</t>
+  </si>
+  <si>
+    <t>承认回答式</t>
+  </si>
+  <si>
+    <t>HEDGE</t>
+  </si>
+  <si>
+    <t>犹豫</t>
+  </si>
+  <si>
+    <t>DECLARATIVE YES-No-QuESTION</t>
+  </si>
+  <si>
+    <t>陈述式是非问</t>
+  </si>
+  <si>
+    <t>OTHER</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>BACKCHANNEL-QUESTION</t>
+  </si>
+  <si>
+    <t>疑问式反馈</t>
+  </si>
+  <si>
+    <t>QUOTATION</t>
+  </si>
+  <si>
+    <t>引用</t>
+  </si>
+  <si>
+    <t>SUMMARIZE/REFORMULATE</t>
+  </si>
+  <si>
+    <r>
+      <t>总结</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <charset val="1"/>
+      </rPr>
+      <t>转述（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Summarize/reformulate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <charset val="1"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>AFFIRMATIVE NON-YES ANSWERS</t>
+  </si>
+  <si>
+    <t>无Yes肯定回答</t>
+  </si>
+  <si>
+    <t>ACTION-DIRECTIVE</t>
+  </si>
+  <si>
+    <t>动作指令</t>
+  </si>
+  <si>
+    <t>COLLABORATIVE COMPLETION</t>
+  </si>
+  <si>
+    <t>协同完成</t>
+  </si>
+  <si>
+    <t>REPEAT-PHRASE</t>
+  </si>
+  <si>
+    <t>OPEN-QUESTION</t>
+  </si>
+  <si>
+    <t>RHETORICAL-QUESTIONS</t>
+  </si>
+  <si>
+    <t>HOLD BEFORE ANSWER/AGREEMENT</t>
+  </si>
+  <si>
+    <t>REJECT</t>
+  </si>
+  <si>
+    <t>拒绝</t>
+  </si>
+  <si>
+    <t>NEGATIVE NON-NO ANSWERS</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="Source Code Pro"/>
+        <charset val="1"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <rFont val="宋体"/>
+        <charset val="1"/>
+      </rPr>
+      <t>否定回答</t>
+    </r>
+  </si>
+  <si>
+    <t>SIGNAL-NON-UNDERSTANDING</t>
+  </si>
+  <si>
+    <t>OTHER ANSWERS</t>
+  </si>
+  <si>
+    <t>CONVENTIONAL-OPENING</t>
+  </si>
+  <si>
+    <t>OR-CLAUSE</t>
+  </si>
+  <si>
+    <t>选择问</t>
+  </si>
+  <si>
+    <t>DISPREFERRED ANSWERS</t>
+  </si>
+  <si>
+    <t>不合适的答案</t>
+  </si>
+  <si>
+    <t>3RD-PARTY-TALK</t>
+  </si>
+  <si>
+    <t>OFFERS, OPTIONS &amp; COMMITS</t>
+  </si>
+  <si>
+    <t>SELF-TALK</t>
+  </si>
+  <si>
+    <t>自言自语</t>
+  </si>
+  <si>
+    <t>DOWNPLAYER</t>
+  </si>
+  <si>
+    <t>自谦</t>
+  </si>
+  <si>
+    <t>MAYBE/ACCEPT-PART</t>
+  </si>
+  <si>
+    <t>TAG-QUESTION</t>
+  </si>
+  <si>
+    <t>反义疑问</t>
+  </si>
+  <si>
+    <t>DECLARATIVE WH-QUESTION</t>
+  </si>
+  <si>
+    <t>APOLOGY</t>
+  </si>
+  <si>
+    <t>THANKING</t>
+  </si>
+  <si>
+    <t>致谢</t>
   </si>
 </sst>
 </file>
@@ -2801,18 +3136,57 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11.3"/>
+      <name val="Source Code Pro"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="宋体"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2829,26 +3203,8 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2859,8 +3215,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2873,9 +3261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2883,23 +3271,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2925,32 +3299,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2965,7 +3316,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2979,20 +3330,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <name val="Source Code Pro"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3033,13 +3394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3051,13 +3418,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3075,13 +3466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3093,19 +3478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3123,37 +3514,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3165,59 +3568,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3238,15 +3636,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3333,26 +3722,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3389,8 +3761,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -3405,6 +3779,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -3415,189 +3804,217 @@
     </border>
   </borders>
   <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="5" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
@@ -3606,42 +4023,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3990,884 +4407,884 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="A2" sqref="A2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="22.875" style="20" customWidth="1"/>
-    <col min="2" max="2" width="25" style="20" customWidth="1"/>
-    <col min="3" max="3" width="17" style="20" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="20" customWidth="1"/>
-    <col min="5" max="5" width="20" style="20" customWidth="1"/>
-    <col min="6" max="6" width="16.75" style="20" customWidth="1"/>
-    <col min="7" max="9" width="12" style="20" customWidth="1"/>
-    <col min="10" max="10" width="50.875" style="20" customWidth="1"/>
-    <col min="11" max="11" width="40.875" style="20" customWidth="1"/>
-    <col min="12" max="12" width="29.75" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="22.875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="25" style="32" customWidth="1"/>
+    <col min="3" max="3" width="17" style="32" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="32" customWidth="1"/>
+    <col min="5" max="5" width="20" style="32" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="32" customWidth="1"/>
+    <col min="7" max="9" width="12" style="32" customWidth="1"/>
+    <col min="10" max="10" width="50.875" style="32" customWidth="1"/>
+    <col min="11" max="11" width="40.875" style="32" customWidth="1"/>
+    <col min="12" max="12" width="29.75" style="32" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" spans="1:12">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="32" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="K1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="L1" s="44" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="35"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="32">
         <v>88</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="G4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="35" t="s">
+      <c r="K4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="35" t="s">
+      <c r="L4" s="47" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="26" t="s">
+      <c r="I7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35" t="s">
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="26" t="s">
+      <c r="F8" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="26" t="s">
+      <c r="F9" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="K9" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="L9" s="35"/>
+      <c r="L9" s="47"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:12">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="31" t="s">
+      <c r="H10" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="35" t="s">
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="47" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="35" t="s">
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="47" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="26" t="s">
+      <c r="F12" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="K13" s="35" t="s">
+      <c r="K13" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="35"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="F14" s="26" t="s">
+      <c r="F14" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="I14" s="26" t="s">
+      <c r="I14" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="J15" s="34"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="47"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="F16" s="31" t="s">
+      <c r="F16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="J16" s="34" t="s">
+      <c r="J16" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="K16" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="47" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="H17" s="31" t="s">
+      <c r="H17" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="35" t="s">
+      <c r="K18" s="47" t="s">
         <v>151</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="47" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="G19" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="35" t="s">
+      <c r="K19" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="47" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="25" t="s">
+      <c r="A20" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="36" t="s">
         <v>162</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="G20" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="J20" s="34" t="s">
+      <c r="J20" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="K20" s="35" t="s">
+      <c r="K20" s="47" t="s">
         <v>169</v>
       </c>
-      <c r="L20" s="35"/>
+      <c r="L20" s="47"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="36" t="s">
         <v>170</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="G21" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="K21" s="35" t="s">
+      <c r="K21" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="47"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="G22" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="K22" s="35" t="s">
+      <c r="K22" s="47" t="s">
         <v>185</v>
       </c>
-      <c r="L22" s="35"/>
+      <c r="L22" s="47"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="25" t="s">
+      <c r="A23" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G23" s="26" t="s">
+      <c r="G23" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="J23" s="34"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="F24" s="26" t="s">
+      <c r="F24" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="26" t="s">
+      <c r="G24" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="J24" s="34"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
     </row>
     <row r="25" ht="15.75" customHeight="1" spans="1:12">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="G25" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="J25" s="36" t="s">
+      <c r="J25" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="K25" s="35" t="s">
+      <c r="K25" s="47" t="s">
         <v>209</v>
       </c>
-      <c r="L25" s="35"/>
+      <c r="L25" s="47"/>
     </row>
     <row r="26" ht="15" customHeight="1" spans="1:12">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="40" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B26" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="F26" s="26" t="s">
+      <c r="F26" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="H26" s="26" t="s">
+      <c r="H26" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="I26" s="26" t="s">
+      <c r="I26" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="J26" s="34"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
     </row>
     <row r="27" ht="12.75" spans="1:12">
-      <c r="A27" s="29" t="s">
+      <c r="A27" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="G27" s="30" t="s">
+      <c r="G27" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="I27" s="30" t="s">
+      <c r="I27" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="38"/>
+      <c r="J27" s="49"/>
+      <c r="K27" s="49"/>
+      <c r="L27" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4887,8 +5304,8 @@
   <sheetPr/>
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -4896,6 +5313,7 @@
     <col min="2" max="2" width="45.75" customWidth="1"/>
     <col min="3" max="3" width="46.5" customWidth="1"/>
     <col min="4" max="4" width="35.625" customWidth="1"/>
+    <col min="9" max="9" width="23.8833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4910,10 +5328,10 @@
       </c>
     </row>
     <row r="2" ht="15" spans="1:3">
-      <c r="A2" s="5">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="18" t="s">
         <v>228</v>
       </c>
       <c r="C2" t="s">
@@ -4921,10 +5339,10 @@
       </c>
     </row>
     <row r="3" ht="15" spans="1:3">
-      <c r="A3" s="7">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="20" t="s">
         <v>230</v>
       </c>
       <c r="C3" t="s">
@@ -4932,10 +5350,10 @@
       </c>
     </row>
     <row r="4" ht="15" spans="1:3">
-      <c r="A4" s="5">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="21" t="s">
         <v>232</v>
       </c>
       <c r="C4" t="s">
@@ -4943,10 +5361,10 @@
       </c>
     </row>
     <row r="5" ht="15" spans="1:3">
-      <c r="A5" s="5">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="21" t="s">
         <v>234</v>
       </c>
       <c r="C5" t="s">
@@ -4954,10 +5372,10 @@
       </c>
     </row>
     <row r="6" ht="15" spans="1:3">
-      <c r="A6" s="7">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="20" t="s">
         <v>236</v>
       </c>
       <c r="C6" t="s">
@@ -4965,10 +5383,10 @@
       </c>
     </row>
     <row r="7" ht="15" spans="1:3">
-      <c r="A7" s="5">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="21" t="s">
         <v>238</v>
       </c>
       <c r="C7" t="s">
@@ -4976,32 +5394,32 @@
       </c>
     </row>
     <row r="8" ht="15" spans="1:3">
-      <c r="A8" s="7">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="20" t="s">
         <v>240</v>
       </c>
       <c r="C8" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="1:3">
-      <c r="A9" s="5">
+    <row r="9" ht="22" customHeight="1" spans="1:3">
+      <c r="A9" s="22">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="23" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="10" ht="15" spans="1:3">
-      <c r="A10" s="5">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="21" t="s">
         <v>244</v>
       </c>
       <c r="C10" t="s">
@@ -5009,10 +5427,10 @@
       </c>
     </row>
     <row r="11" ht="15" spans="1:3">
-      <c r="A11" s="7">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="20" t="s">
         <v>246</v>
       </c>
       <c r="C11" t="s">
@@ -5020,10 +5438,10 @@
       </c>
     </row>
     <row r="12" ht="15" spans="1:3">
-      <c r="A12" s="7">
+      <c r="A12" s="19">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="20" t="s">
         <v>248</v>
       </c>
       <c r="C12" t="s">
@@ -5031,10 +5449,10 @@
       </c>
     </row>
     <row r="13" ht="15" spans="1:4">
-      <c r="A13" s="11">
+      <c r="A13" s="24">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="25" t="s">
         <v>250</v>
       </c>
       <c r="D13" t="s">
@@ -5042,24 +5460,24 @@
       </c>
     </row>
     <row r="14" ht="28.5" spans="1:4">
-      <c r="A14" s="7">
+      <c r="A14" s="19">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="20" t="s">
         <v>252</v>
       </c>
       <c r="C14" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="23" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="15" ht="15" spans="1:3">
-      <c r="A15" s="7">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="20" t="s">
         <v>255</v>
       </c>
       <c r="C15" t="s">
@@ -5067,10 +5485,10 @@
       </c>
     </row>
     <row r="16" ht="15" spans="1:3">
-      <c r="A16" s="5">
+      <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="21" t="s">
         <v>257</v>
       </c>
       <c r="C16" t="s">
@@ -5078,10 +5496,10 @@
       </c>
     </row>
     <row r="17" ht="15" spans="1:3">
-      <c r="A17" s="7">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="20" t="s">
         <v>259</v>
       </c>
       <c r="C17" t="s">
@@ -5089,10 +5507,10 @@
       </c>
     </row>
     <row r="18" ht="15" spans="1:3">
-      <c r="A18" s="7">
+      <c r="A18" s="19">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="20" t="s">
         <v>261</v>
       </c>
       <c r="C18" t="s">
@@ -5100,10 +5518,10 @@
       </c>
     </row>
     <row r="19" ht="15" spans="1:4">
-      <c r="A19" s="5">
+      <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="21" t="s">
         <v>263</v>
       </c>
       <c r="C19" t="s">
@@ -5114,10 +5532,10 @@
       </c>
     </row>
     <row r="20" ht="15" spans="1:3">
-      <c r="A20" s="7">
+      <c r="A20" s="19">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="20" t="s">
         <v>266</v>
       </c>
       <c r="C20" t="s">
@@ -5125,10 +5543,10 @@
       </c>
     </row>
     <row r="21" ht="15" spans="1:3">
-      <c r="A21" s="5">
+      <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="21" t="s">
         <v>268</v>
       </c>
       <c r="C21" t="s">
@@ -5136,10 +5554,10 @@
       </c>
     </row>
     <row r="22" ht="15" spans="1:3">
-      <c r="A22" s="7">
+      <c r="A22" s="19">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="20" t="s">
         <v>270</v>
       </c>
       <c r="C22" t="s">
@@ -5147,10 +5565,10 @@
       </c>
     </row>
     <row r="23" ht="15" spans="1:3">
-      <c r="A23" s="5">
+      <c r="A23" s="17">
         <v>22</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="21" t="s">
         <v>272</v>
       </c>
       <c r="C23" t="s">
@@ -5158,10 +5576,10 @@
       </c>
     </row>
     <row r="24" ht="15" spans="1:3">
-      <c r="A24" s="5">
+      <c r="A24" s="17">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="21" t="s">
         <v>274</v>
       </c>
       <c r="C24" t="s">
@@ -5169,10 +5587,10 @@
       </c>
     </row>
     <row r="25" ht="15" spans="1:3">
-      <c r="A25" s="5">
+      <c r="A25" s="17">
         <v>24</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="21" t="s">
         <v>276</v>
       </c>
       <c r="C25" t="s">
@@ -5180,10 +5598,10 @@
       </c>
     </row>
     <row r="26" ht="15" spans="1:3">
-      <c r="A26" s="5">
+      <c r="A26" s="17">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="21" t="s">
         <v>278</v>
       </c>
       <c r="C26" t="s">
@@ -5191,10 +5609,10 @@
       </c>
     </row>
     <row r="27" ht="15" spans="1:4">
-      <c r="A27" s="7">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="20" t="s">
         <v>280</v>
       </c>
       <c r="C27" t="s">
@@ -5205,10 +5623,10 @@
       </c>
     </row>
     <row r="28" ht="15" spans="1:3">
-      <c r="A28" s="7">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="20" t="s">
         <v>283</v>
       </c>
       <c r="C28" t="s">
@@ -5216,18 +5634,18 @@
       </c>
     </row>
     <row r="29" ht="15" spans="1:2">
-      <c r="A29" s="5">
+      <c r="A29" s="17">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="18" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="30" ht="15" spans="1:3">
-      <c r="A30" s="7">
+      <c r="A30" s="19">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="20" t="s">
         <v>286</v>
       </c>
       <c r="C30" t="s">
@@ -5235,10 +5653,10 @@
       </c>
     </row>
     <row r="31" ht="15" spans="1:3">
-      <c r="A31" s="7">
+      <c r="A31" s="19">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="20" t="s">
         <v>288</v>
       </c>
       <c r="C31" t="s">
@@ -5246,10 +5664,10 @@
       </c>
     </row>
     <row r="32" ht="15" spans="1:3">
-      <c r="A32" s="7">
+      <c r="A32" s="19">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="20" t="s">
         <v>290</v>
       </c>
       <c r="C32" t="s">
@@ -5257,10 +5675,10 @@
       </c>
     </row>
     <row r="33" ht="15" spans="1:3">
-      <c r="A33" s="7">
+      <c r="A33" s="19">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="20" t="s">
         <v>292</v>
       </c>
       <c r="C33" t="s">
@@ -5268,10 +5686,10 @@
       </c>
     </row>
     <row r="34" ht="15" spans="1:3">
-      <c r="A34" s="5">
+      <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="21" t="s">
         <v>294</v>
       </c>
       <c r="C34" t="s">
@@ -5279,10 +5697,10 @@
       </c>
     </row>
     <row r="35" ht="15" spans="1:3">
-      <c r="A35" s="5">
+      <c r="A35" s="17">
         <v>34</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="21" t="s">
         <v>296</v>
       </c>
       <c r="C35" t="s">
@@ -5290,18 +5708,18 @@
       </c>
     </row>
     <row r="36" ht="15" spans="1:2">
-      <c r="A36" s="14">
+      <c r="A36" s="26">
         <v>35</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="27" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="37" ht="15" spans="1:3">
-      <c r="A37" s="7">
+      <c r="A37" s="19">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="20" t="s">
         <v>299</v>
       </c>
       <c r="C37" t="s">
@@ -5309,10 +5727,10 @@
       </c>
     </row>
     <row r="38" ht="15" spans="1:3">
-      <c r="A38" s="7">
+      <c r="A38" s="19">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="20" t="s">
         <v>301</v>
       </c>
       <c r="C38" t="s">
@@ -5320,10 +5738,10 @@
       </c>
     </row>
     <row r="39" ht="15" spans="1:3">
-      <c r="A39" s="7">
+      <c r="A39" s="19">
         <v>38</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="28" t="s">
         <v>303</v>
       </c>
       <c r="C39" t="s">
@@ -5331,10 +5749,10 @@
       </c>
     </row>
     <row r="40" ht="15" spans="1:3">
-      <c r="A40" s="5">
+      <c r="A40" s="17">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="21" t="s">
         <v>305</v>
       </c>
       <c r="C40" t="s">
@@ -5342,10 +5760,10 @@
       </c>
     </row>
     <row r="41" ht="15" spans="1:3">
-      <c r="A41" s="7">
+      <c r="A41" s="19">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="20" t="s">
         <v>307</v>
       </c>
       <c r="C41" t="s">
@@ -5353,10 +5771,10 @@
       </c>
     </row>
     <row r="42" ht="15" spans="1:4">
-      <c r="A42" s="5">
+      <c r="A42" s="17">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="21" t="s">
         <v>309</v>
       </c>
       <c r="C42" t="s">
@@ -5367,10 +5785,10 @@
       </c>
     </row>
     <row r="43" ht="15" spans="1:3">
-      <c r="A43" s="7">
+      <c r="A43" s="19">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="20" t="s">
         <v>312</v>
       </c>
       <c r="C43" t="s">
@@ -5378,10 +5796,10 @@
       </c>
     </row>
     <row r="44" ht="15" spans="1:3">
-      <c r="A44" s="5">
+      <c r="A44" s="17">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="21" t="s">
         <v>314</v>
       </c>
       <c r="C44" t="s">
@@ -5389,10 +5807,10 @@
       </c>
     </row>
     <row r="45" ht="15" spans="1:3">
-      <c r="A45" s="7">
+      <c r="A45" s="19">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="20" t="s">
         <v>316</v>
       </c>
       <c r="C45" t="s">
@@ -5400,10 +5818,10 @@
       </c>
     </row>
     <row r="46" ht="15" spans="1:3">
-      <c r="A46" s="7">
+      <c r="A46" s="19">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="20" t="s">
         <v>318</v>
       </c>
       <c r="C46" t="s">
@@ -5411,10 +5829,10 @@
       </c>
     </row>
     <row r="47" ht="15" spans="1:3">
-      <c r="A47" s="5">
+      <c r="A47" s="17">
         <v>46</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="21" t="s">
         <v>320</v>
       </c>
       <c r="C47" t="s">
@@ -5422,30 +5840,30 @@
       </c>
     </row>
     <row r="48" ht="15" spans="1:3">
-      <c r="A48" s="7">
+      <c r="A48" s="19">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="29" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="49" ht="15" spans="1:3">
-      <c r="A49" s="7">
+      <c r="A49" s="19">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C49" s="17"/>
+      <c r="C49" s="29"/>
     </row>
     <row r="50" ht="15" spans="1:3">
-      <c r="A50" s="5">
+      <c r="A50" s="17">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="21" t="s">
         <v>325</v>
       </c>
       <c r="C50" t="s">
@@ -5453,19 +5871,19 @@
       </c>
     </row>
     <row r="51" ht="15" spans="1:3">
-      <c r="A51" s="14">
+      <c r="A51" s="26">
         <v>50</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="C51" s="18"/>
+      <c r="C51" s="30"/>
     </row>
     <row r="52" ht="15" spans="1:3">
-      <c r="A52" s="7">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="28" t="s">
         <v>328</v>
       </c>
       <c r="C52" t="s">
@@ -5473,10 +5891,10 @@
       </c>
     </row>
     <row r="53" ht="15" spans="1:3">
-      <c r="A53" s="5">
+      <c r="A53" s="17">
         <v>52</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="18" t="s">
         <v>330</v>
       </c>
       <c r="C53" t="s">
@@ -5484,10 +5902,10 @@
       </c>
     </row>
     <row r="54" ht="15" spans="1:3">
-      <c r="A54" s="5">
+      <c r="A54" s="17">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="18" t="s">
         <v>332</v>
       </c>
       <c r="C54" t="s">
@@ -5495,10 +5913,10 @@
       </c>
     </row>
     <row r="55" ht="15" spans="1:3">
-      <c r="A55" s="5">
+      <c r="A55" s="17">
         <v>54</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="18" t="s">
         <v>333</v>
       </c>
       <c r="C55" t="s">
@@ -5506,10 +5924,10 @@
       </c>
     </row>
     <row r="56" ht="15" spans="1:3">
-      <c r="A56" s="5">
+      <c r="A56" s="17">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="21" t="s">
         <v>335</v>
       </c>
       <c r="C56" t="s">
@@ -5517,18 +5935,18 @@
       </c>
     </row>
     <row r="57" ht="15" spans="1:2">
-      <c r="A57" s="14">
+      <c r="A57" s="26">
         <v>56</v>
       </c>
-      <c r="B57" s="15" t="s">
+      <c r="B57" s="27" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="58" ht="15" spans="1:3">
-      <c r="A58" s="5">
+      <c r="A58" s="17">
         <v>57</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="18" t="s">
         <v>337</v>
       </c>
       <c r="C58" t="s">
@@ -5536,10 +5954,10 @@
       </c>
     </row>
     <row r="59" ht="15" spans="1:3">
-      <c r="A59" s="7">
+      <c r="A59" s="19">
         <v>58</v>
       </c>
-      <c r="B59" s="16" t="s">
+      <c r="B59" s="28" t="s">
         <v>338</v>
       </c>
       <c r="C59" t="s">
@@ -5547,10 +5965,10 @@
       </c>
     </row>
     <row r="60" ht="18.75" customHeight="1" spans="1:2">
-      <c r="A60" s="14">
+      <c r="A60" s="26">
         <v>59</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="31" t="s">
         <v>339</v>
       </c>
     </row>
@@ -5582,10 +6000,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="16"/>
       <c r="C1" t="s">
         <v>341</v>
       </c>
@@ -5600,7 +6018,7 @@
       <c r="B2" t="s">
         <v>344</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="13" t="s">
         <v>345</v>
       </c>
       <c r="D2" t="s">
@@ -5608,22 +6026,22 @@
       </c>
     </row>
     <row r="3" spans="3:3">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="13" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="4" spans="3:3">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="13" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="5" spans="3:3">
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="13" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="6" spans="3:3">
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="13" t="s">
         <v>350</v>
       </c>
     </row>
@@ -5631,27 +6049,27 @@
       <c r="B7" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="14" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="8" spans="3:3">
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="13" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="9" spans="3:3">
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="13" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="10" spans="3:3">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="14" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="11" spans="3:4">
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="13" t="s">
         <v>356</v>
       </c>
       <c r="D11" t="s">
@@ -5659,12 +6077,12 @@
       </c>
     </row>
     <row r="12" spans="3:3">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="13" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="13" spans="3:3">
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="13" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5672,42 +6090,42 @@
       <c r="B14" t="s">
         <v>360</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="14" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="15" spans="3:3">
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="14" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="14" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="17" spans="3:3">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="13" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="13" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="19" spans="3:3">
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="14" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="20" spans="3:3">
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="13" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="3:3">
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="13" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5715,32 +6133,32 @@
       <c r="B22" t="s">
         <v>369</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="14" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="23" spans="3:3">
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="14" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="24" spans="3:3">
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="14" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="25" spans="3:3">
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="14" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="26" spans="3:3">
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="13" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="27" spans="3:3">
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="13" t="s">
         <v>375</v>
       </c>
     </row>
@@ -5751,12 +6169,12 @@
       <c r="B28" t="s">
         <v>377</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="13" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="29" spans="3:3">
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -5767,12 +6185,12 @@
       <c r="B30" t="s">
         <v>380</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="14" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="31" spans="3:3">
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="14" t="s">
         <v>382</v>
       </c>
     </row>
@@ -5780,32 +6198,32 @@
       <c r="A32" t="s">
         <v>383</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="14" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="33" spans="3:3">
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="14" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="34" spans="3:3">
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="14" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="35" spans="3:3">
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="14" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="36" spans="3:3">
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="14" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="37" spans="3:3">
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="14" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5813,12 +6231,12 @@
       <c r="A38" t="s">
         <v>390</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="13" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="39" spans="3:3">
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="14" t="s">
         <v>392</v>
       </c>
     </row>
@@ -5826,12 +6244,12 @@
       <c r="A40" t="s">
         <v>393</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="14" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="41" spans="3:3">
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5839,52 +6257,52 @@
       <c r="A42" t="s">
         <v>395</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="13" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="43" spans="3:3">
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="13" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="44" spans="3:3">
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="14" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="45" spans="3:3">
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="14" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="46" spans="3:3">
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="13" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="47" spans="3:3">
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="48" spans="3:3">
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="13" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="49" spans="3:3">
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="50" spans="3:3">
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="51" spans="3:3">
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="14" t="s">
         <v>401</v>
       </c>
     </row>
@@ -5892,17 +6310,17 @@
       <c r="A52" t="s">
         <v>402</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="14" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="53" spans="3:3">
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="14" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="54" spans="3:3">
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="14" t="s">
         <v>405</v>
       </c>
     </row>
@@ -5910,12 +6328,12 @@
       <c r="A55" t="s">
         <v>406</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="14" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="56" spans="3:3">
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="14" t="s">
         <v>408</v>
       </c>
     </row>
@@ -5956,37 +6374,37 @@
       <c r="C1" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="13" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="2" spans="4:4">
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="13" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="3" spans="4:4">
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="14" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="4" spans="4:4">
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="14" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="5" spans="4:4">
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="13" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="6" spans="4:4">
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="13" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="4:4">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="14" t="s">
         <v>416</v>
       </c>
     </row>
@@ -5994,17 +6412,17 @@
       <c r="C8" t="s">
         <v>417</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="14" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="9" spans="4:4">
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="14" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="10" spans="4:4">
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="13" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6012,25 +6430,25 @@
       <c r="C11" t="s">
         <v>420</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="13" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="13" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="13" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="13" t="s">
         <v>424</v>
       </c>
     </row>
@@ -6043,34 +6461,34 @@
       <c r="D16" t="s">
         <v>426</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="14" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="17" spans="5:6">
-      <c r="E17" s="2"/>
-      <c r="F17" s="2" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="14" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="14" t="s">
         <v>431</v>
       </c>
     </row>
     <row r="20" spans="5:6">
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="15" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6078,36 +6496,36 @@
       <c r="D21" t="s">
         <v>434</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="15" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="22" spans="5:6">
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="13" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="23" spans="6:6">
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="13" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="14" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="14" t="s">
         <v>441</v>
       </c>
     </row>
@@ -6120,4 +6538,706 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="23.875" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="23.875" customWidth="1"/>
+    <col min="2" max="2" width="34.775" customWidth="1"/>
+    <col min="3" max="8" width="23.875" customWidth="1"/>
+    <col min="9" max="9" width="8.75" customWidth="1"/>
+    <col min="10" max="10" width="23.875" customWidth="1"/>
+    <col min="14" max="16384" width="23.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="C8" t="s">
+        <v>459</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:7">
+      <c r="A10" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>463</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C12" t="s">
+        <v>467</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:7">
+      <c r="A13" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C16" t="s">
+        <v>459</v>
+      </c>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C19" t="s">
+        <v>447</v>
+      </c>
+      <c r="E19" s="5"/>
+      <c r="F19" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B27" s="6"/>
+      <c r="C27" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="5"/>
+      <c r="F27" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:3">
+      <c r="A33" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B35" s="6"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:3">
+      <c r="A37" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
+      <c r="A38" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:3">
+      <c r="A41" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:4">
+      <c r="A42" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:4">
+      <c r="A43" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>